--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB64788-7820-4401-B1CF-5E9C9F47FA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14F6342-A729-43E8-9A93-82571EC59E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14F6342-A729-43E8-9A93-82571EC59E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC32AB-1EB5-4351-928A-C2AADDA358C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ParameterName</t>
   </si>
@@ -36,12 +41,6 @@
     <t>ReportsPath</t>
   </si>
   <si>
-    <t>RawData</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -52,6 +51,18 @@
   </si>
   <si>
     <t>ReportsPrepared</t>
+  </si>
+  <si>
+    <t>01. Сформированные отчеты</t>
+  </si>
+  <si>
+    <t>03. Формы отчетов</t>
+  </si>
+  <si>
+    <t>04. Настройки</t>
+  </si>
+  <si>
+    <t>02. Данные выгруженные из DES.LM</t>
   </si>
 </sst>
 </file>
@@ -379,7 +390,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,28 +412,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -430,13 +441,14 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC32AB-1EB5-4351-928A-C2AADDA358C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BC69D-7A16-4B82-A9CE-4F987023D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ParameterName</t>
   </si>
@@ -53,16 +53,10 @@
     <t>ReportsPrepared</t>
   </si>
   <si>
-    <t>01. Сформированные отчеты</t>
-  </si>
-  <si>
-    <t>03. Формы отчетов</t>
-  </si>
-  <si>
-    <t>04. Настройки</t>
-  </si>
-  <si>
-    <t>02. Данные выгруженные из DES.LM</t>
+    <t>RawData</t>
+  </si>
+  <si>
+    <t>Reports</t>
   </si>
 </sst>
 </file>
@@ -390,7 +384,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,23 +422,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BC69D-7A16-4B82-A9CE-4F987023D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605142E-7622-42FE-BF4C-C4DF2010EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,12 +384,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605142E-7622-42FE-BF4C-C4DF2010EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553534F-A77C-49D8-9F76-6BB1F68DC93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Settings.xlsx
+++ b/Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553534F-A77C-49D8-9F76-6BB1F68DC93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD71DF0-6776-492F-A1B9-86AB104365D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ParameterName</t>
   </si>
@@ -56,7 +56,10 @@
     <t>RawData</t>
   </si>
   <si>
-    <t>Reports</t>
+    <t>C:/Users/Dim-Dim/MyData/Common Work Place/Projects/DES.LM.Reports - Production/01. Настройки</t>
+  </si>
+  <si>
+    <t>C:/Users/Dim-Dim/MyData/Common Work Place/Projects/DES.LM.Reports - Production/02. Формы отчетов</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
